--- a/database/industries/folad/folad/income/quarterly/rial_cumulative.xlsx
+++ b/database/industries/folad/folad/income/quarterly/rial_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\folad\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\folad\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF0BEEF-5D5D-4C2E-A693-7B6494EC45CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73176885-91DD-4741-85C7-717D89470C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>6 ماهه منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>9 ماهه منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>9 ماهه منتهی به 1401/09</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-11-24 (4)</t>
-  </si>
-  <si>
     <t>1400-10-29 (2)</t>
   </si>
   <si>
@@ -88,13 +85,16 @@
     <t>1401-10-29 (2)</t>
   </si>
   <si>
-    <t>1401-10-29 (6)</t>
+    <t>1402-02-30 (8)</t>
   </si>
   <si>
     <t>1401-04-30</t>
   </si>
   <si>
     <t>1401-10-29</t>
+  </si>
+  <si>
+    <t>1402-02-30 (2)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -616,18 +616,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="9" width="28" customWidth="1"/>
-    <col min="10" max="10" width="29" customWidth="1"/>
-    <col min="11" max="13" width="28" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="8" width="28" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="10" max="12" width="28" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -641,7 +642,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -657,7 +658,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -673,7 +674,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -687,7 +688,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -703,7 +704,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -719,7 +720,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -733,7 +734,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -769,7 +770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -796,16 +797,16 @@
         <v>22</v>
       </c>
       <c r="K9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>21</v>
       </c>
       <c r="M9" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -819,151 +820,151 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>273617923</v>
+        <v>494552551</v>
       </c>
       <c r="E11" s="13">
-        <v>494552551</v>
+        <v>774036745</v>
       </c>
       <c r="F11" s="13">
-        <v>774036745</v>
+        <v>336653925</v>
       </c>
       <c r="G11" s="13">
-        <v>336653925</v>
+        <v>660847349</v>
       </c>
       <c r="H11" s="13">
-        <v>660847349</v>
+        <v>1049691323</v>
       </c>
       <c r="I11" s="13">
-        <v>1049691323</v>
+        <v>1456266489</v>
       </c>
       <c r="J11" s="13">
-        <v>1456266489</v>
+        <v>481494914</v>
       </c>
       <c r="K11" s="13">
-        <v>481494914</v>
+        <v>807673722</v>
       </c>
       <c r="L11" s="13">
-        <v>807673722</v>
+        <v>1156373480</v>
       </c>
       <c r="M11" s="13">
-        <v>1156373480</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1607038537</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-151011055</v>
+        <v>-263134263</v>
       </c>
       <c r="E12" s="11">
-        <v>-263134263</v>
+        <v>-406302318</v>
       </c>
       <c r="F12" s="11">
-        <v>-406302318</v>
+        <v>-164051934</v>
       </c>
       <c r="G12" s="11">
-        <v>-164051934</v>
+        <v>-260735659</v>
       </c>
       <c r="H12" s="11">
-        <v>-260735659</v>
+        <v>-455570376</v>
       </c>
       <c r="I12" s="11">
-        <v>-455570376</v>
+        <v>-701949250</v>
       </c>
       <c r="J12" s="11">
-        <v>-701949251</v>
+        <v>-250964524</v>
       </c>
       <c r="K12" s="11">
-        <v>-250964524</v>
+        <v>-453578928</v>
       </c>
       <c r="L12" s="11">
-        <v>-453578928</v>
+        <v>-699482419</v>
       </c>
       <c r="M12" s="11">
-        <v>-699482419</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-1036494655</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>122606868</v>
+        <v>231418288</v>
       </c>
       <c r="E13" s="15">
-        <v>231418288</v>
+        <v>367734427</v>
       </c>
       <c r="F13" s="15">
-        <v>367734427</v>
+        <v>172601991</v>
       </c>
       <c r="G13" s="15">
-        <v>172601991</v>
+        <v>400111690</v>
       </c>
       <c r="H13" s="15">
-        <v>400111690</v>
+        <v>594120947</v>
       </c>
       <c r="I13" s="15">
-        <v>594120947</v>
+        <v>754317239</v>
       </c>
       <c r="J13" s="15">
-        <v>754317238</v>
+        <v>230530390</v>
       </c>
       <c r="K13" s="15">
-        <v>230530390</v>
+        <v>354094794</v>
       </c>
       <c r="L13" s="15">
-        <v>354094794</v>
+        <v>456891061</v>
       </c>
       <c r="M13" s="15">
-        <v>456891061</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>570543882</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-7260316</v>
+        <v>-12322493</v>
       </c>
       <c r="E14" s="11">
-        <v>-12322493</v>
+        <v>-18679133</v>
       </c>
       <c r="F14" s="11">
-        <v>-18679133</v>
+        <v>-6317127</v>
       </c>
       <c r="G14" s="11">
-        <v>-6317127</v>
+        <v>-14387132</v>
       </c>
       <c r="H14" s="11">
-        <v>-14387132</v>
+        <v>-22128121</v>
       </c>
       <c r="I14" s="11">
-        <v>-22128121</v>
+        <v>-34327741</v>
       </c>
       <c r="J14" s="11">
-        <v>-32283996</v>
+        <v>-11686162</v>
       </c>
       <c r="K14" s="11">
-        <v>-11686162</v>
+        <v>-20900813</v>
       </c>
       <c r="L14" s="11">
-        <v>-20900813</v>
+        <v>-35701123</v>
       </c>
       <c r="M14" s="11">
-        <v>-35701123</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-53307287</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>29</v>
       </c>
@@ -999,259 +1000,259 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>3869806</v>
+        <v>3976497</v>
       </c>
       <c r="E16" s="11">
-        <v>3976497</v>
+        <v>6356145</v>
       </c>
       <c r="F16" s="11">
-        <v>6356145</v>
+        <v>-473711</v>
       </c>
       <c r="G16" s="11">
-        <v>-473711</v>
+        <v>1890032</v>
       </c>
       <c r="H16" s="11">
-        <v>1890032</v>
+        <v>2319168</v>
       </c>
       <c r="I16" s="11">
-        <v>2319168</v>
+        <v>12254290</v>
       </c>
       <c r="J16" s="11">
-        <v>12254291</v>
+        <v>-1606555</v>
       </c>
       <c r="K16" s="11">
-        <v>-1606555</v>
+        <v>544812</v>
       </c>
       <c r="L16" s="11">
-        <v>544812</v>
+        <v>-1505462</v>
       </c>
       <c r="M16" s="11">
-        <v>-1505462</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>23322833</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>119216358</v>
+        <v>223072292</v>
       </c>
       <c r="E17" s="15">
-        <v>223072292</v>
+        <v>355411439</v>
       </c>
       <c r="F17" s="15">
-        <v>355411439</v>
+        <v>165811153</v>
       </c>
       <c r="G17" s="15">
-        <v>165811153</v>
+        <v>387614590</v>
       </c>
       <c r="H17" s="15">
-        <v>387614590</v>
+        <v>574311994</v>
       </c>
       <c r="I17" s="15">
-        <v>574311994</v>
+        <v>732243788</v>
       </c>
       <c r="J17" s="15">
-        <v>734287533</v>
+        <v>217237673</v>
       </c>
       <c r="K17" s="15">
-        <v>217237673</v>
+        <v>333738793</v>
       </c>
       <c r="L17" s="15">
-        <v>333738793</v>
+        <v>419684476</v>
       </c>
       <c r="M17" s="15">
-        <v>419684476</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>540559428</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-11947558</v>
+        <v>-17769738</v>
       </c>
       <c r="E18" s="11">
-        <v>-17769738</v>
+        <v>-30243308</v>
       </c>
       <c r="F18" s="11">
-        <v>-30243308</v>
+        <v>-7785869</v>
       </c>
       <c r="G18" s="11">
-        <v>-7785869</v>
+        <v>-12942051</v>
       </c>
       <c r="H18" s="11">
-        <v>-12942051</v>
+        <v>-18935402</v>
       </c>
       <c r="I18" s="11">
-        <v>-18935402</v>
+        <v>-24945630</v>
       </c>
       <c r="J18" s="11">
-        <v>-24945630</v>
+        <v>-8399752</v>
       </c>
       <c r="K18" s="11">
-        <v>-8399752</v>
+        <v>-14830551</v>
       </c>
       <c r="L18" s="11">
-        <v>-14830551</v>
+        <v>-23100509</v>
       </c>
       <c r="M18" s="11">
-        <v>-23100509</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-37181720</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>16121038</v>
+        <v>24422385</v>
       </c>
       <c r="E19" s="13">
-        <v>24422385</v>
+        <v>90009897</v>
       </c>
       <c r="F19" s="13">
-        <v>90009897</v>
+        <v>10915093</v>
       </c>
       <c r="G19" s="13">
-        <v>10915093</v>
+        <v>21539041</v>
       </c>
       <c r="H19" s="13">
-        <v>21539041</v>
+        <v>38032336</v>
       </c>
       <c r="I19" s="13">
-        <v>38032336</v>
+        <v>184678606</v>
       </c>
       <c r="J19" s="13">
-        <v>182146885</v>
+        <v>21641874</v>
       </c>
       <c r="K19" s="13">
-        <v>21641874</v>
+        <v>2994581</v>
       </c>
       <c r="L19" s="13">
-        <v>2994581</v>
+        <v>14477680</v>
       </c>
       <c r="M19" s="13">
-        <v>14477680</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>100883934</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>123389838</v>
+        <v>229724939</v>
       </c>
       <c r="E20" s="17">
-        <v>229724939</v>
+        <v>415178028</v>
       </c>
       <c r="F20" s="17">
-        <v>415178028</v>
+        <v>168940377</v>
       </c>
       <c r="G20" s="17">
-        <v>168940377</v>
+        <v>396211580</v>
       </c>
       <c r="H20" s="17">
-        <v>396211580</v>
+        <v>593408928</v>
       </c>
       <c r="I20" s="17">
-        <v>593408928</v>
+        <v>891976764</v>
       </c>
       <c r="J20" s="17">
-        <v>891488788</v>
+        <v>230479795</v>
       </c>
       <c r="K20" s="17">
-        <v>230479795</v>
+        <v>321902823</v>
       </c>
       <c r="L20" s="17">
-        <v>321902823</v>
+        <v>411061647</v>
       </c>
       <c r="M20" s="17">
-        <v>411061647</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>604261642</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-16436675</v>
+        <v>-22647905</v>
       </c>
       <c r="E21" s="13">
-        <v>-22647905</v>
+        <v>-32403017</v>
       </c>
       <c r="F21" s="13">
-        <v>-32403017</v>
+        <v>-30341156</v>
       </c>
       <c r="G21" s="13">
-        <v>-30341156</v>
+        <v>-52321782</v>
       </c>
       <c r="H21" s="13">
-        <v>-52321782</v>
+        <v>-62544828</v>
       </c>
       <c r="I21" s="13">
-        <v>-62544828</v>
+        <v>-51182605</v>
       </c>
       <c r="J21" s="13">
-        <v>-51182605</v>
+        <v>-23560175</v>
       </c>
       <c r="K21" s="13">
-        <v>-23560175</v>
+        <v>-51943446</v>
       </c>
       <c r="L21" s="13">
-        <v>-51943446</v>
+        <v>-57496535</v>
       </c>
       <c r="M21" s="13">
-        <v>-57496535</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-56957617</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>106953163</v>
+        <v>207077034</v>
       </c>
       <c r="E22" s="17">
-        <v>207077034</v>
+        <v>382775011</v>
       </c>
       <c r="F22" s="17">
-        <v>382775011</v>
+        <v>138599221</v>
       </c>
       <c r="G22" s="17">
-        <v>138599221</v>
+        <v>343889798</v>
       </c>
       <c r="H22" s="17">
-        <v>343889798</v>
+        <v>530864100</v>
       </c>
       <c r="I22" s="17">
-        <v>530864100</v>
+        <v>840794159</v>
       </c>
       <c r="J22" s="17">
-        <v>840306183</v>
+        <v>206919620</v>
       </c>
       <c r="K22" s="17">
-        <v>206919620</v>
+        <v>269959377</v>
       </c>
       <c r="L22" s="17">
-        <v>269959377</v>
+        <v>353565112</v>
       </c>
       <c r="M22" s="17">
-        <v>353565112</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>547304025</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>37</v>
       </c>
@@ -1287,79 +1288,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>106953163</v>
+        <v>207077034</v>
       </c>
       <c r="E24" s="17">
-        <v>207077034</v>
+        <v>382775011</v>
       </c>
       <c r="F24" s="17">
-        <v>382775011</v>
+        <v>138599221</v>
       </c>
       <c r="G24" s="17">
-        <v>138599221</v>
+        <v>343889798</v>
       </c>
       <c r="H24" s="17">
-        <v>343889798</v>
+        <v>530864100</v>
       </c>
       <c r="I24" s="17">
-        <v>530864100</v>
+        <v>840794159</v>
       </c>
       <c r="J24" s="17">
-        <v>840306183</v>
+        <v>206919620</v>
       </c>
       <c r="K24" s="17">
-        <v>206919620</v>
+        <v>269959377</v>
       </c>
       <c r="L24" s="17">
-        <v>269959377</v>
+        <v>353565112</v>
       </c>
       <c r="M24" s="17">
-        <v>353565112</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>547304025</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>365</v>
+        <v>707</v>
       </c>
       <c r="E25" s="13">
-        <v>707</v>
+        <v>1306</v>
       </c>
       <c r="F25" s="13">
-        <v>1306</v>
+        <v>473</v>
       </c>
       <c r="G25" s="13">
-        <v>473</v>
+        <v>649</v>
       </c>
       <c r="H25" s="13">
-        <v>649</v>
+        <v>1002</v>
       </c>
       <c r="I25" s="13">
-        <v>1002</v>
+        <v>2870</v>
       </c>
       <c r="J25" s="13">
-        <v>2868</v>
+        <v>706</v>
       </c>
       <c r="K25" s="13">
-        <v>706</v>
+        <v>509</v>
       </c>
       <c r="L25" s="13">
-        <v>509</v>
+        <v>667</v>
       </c>
       <c r="M25" s="13">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>40</v>
       </c>
@@ -1374,64 +1375,64 @@
         <v>293000000</v>
       </c>
       <c r="G26" s="11">
-        <v>293000000</v>
+        <v>530000000</v>
       </c>
       <c r="H26" s="11">
         <v>530000000</v>
       </c>
       <c r="I26" s="11">
-        <v>530000000</v>
+        <v>293000000</v>
       </c>
       <c r="J26" s="11">
         <v>293000000</v>
       </c>
       <c r="K26" s="11">
-        <v>293000000</v>
+        <v>530000000</v>
       </c>
       <c r="L26" s="11">
         <v>530000000</v>
       </c>
       <c r="M26" s="11">
-        <v>530000000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>800000000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="E27" s="13">
-        <v>391</v>
+        <v>478</v>
       </c>
       <c r="F27" s="13">
-        <v>722</v>
+        <v>173</v>
       </c>
       <c r="G27" s="13">
-        <v>262</v>
+        <v>430</v>
       </c>
       <c r="H27" s="13">
-        <v>649</v>
+        <v>664</v>
       </c>
       <c r="I27" s="13">
-        <v>1002</v>
+        <v>1051</v>
       </c>
       <c r="J27" s="13">
-        <v>1585</v>
+        <v>259</v>
       </c>
       <c r="K27" s="13">
-        <v>390</v>
+        <v>337</v>
       </c>
       <c r="L27" s="13">
-        <v>509</v>
+        <v>442</v>
       </c>
       <c r="M27" s="13">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>

--- a/database/industries/folad/folad/income/quarterly/rial_cumulative.xlsx
+++ b/database/industries/folad/folad/income/quarterly/rial_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\folad\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\folad\folad\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73176885-91DD-4741-85C7-717D89470C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD79564-2155-4218-985F-C0DD87A55372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,30 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>9 ماهه منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>12 ماهه منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>3 ماهه منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>6 ماهه منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>9 ماهه منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>12 ماهه منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>3 ماهه منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>6 ماهه منتهی به 1399/06</t>
+  </si>
+  <si>
     <t>9 ماهه منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,9 +91,39 @@
     <t>12 ماهه منتهی به 1401/12</t>
   </si>
   <si>
+    <t>3 ماهه منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>6 ماهه منتهی به 1402/06</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1398-11-14 (3)</t>
+  </si>
+  <si>
+    <t>1399-05-09 (11)</t>
+  </si>
+  <si>
+    <t>1399-05-11 (3)</t>
+  </si>
+  <si>
+    <t>1399-11-13 (5)</t>
+  </si>
+  <si>
+    <t>1399-10-30 (3)</t>
+  </si>
+  <si>
+    <t>1400-05-07 (12)</t>
+  </si>
+  <si>
+    <t>1400-04-30 (3)</t>
+  </si>
+  <si>
+    <t>1400-11-24 (4)</t>
+  </si>
+  <si>
     <t>1400-10-29 (2)</t>
   </si>
   <si>
@@ -85,16 +139,25 @@
     <t>1401-10-29 (2)</t>
   </si>
   <si>
-    <t>1402-02-30 (8)</t>
-  </si>
-  <si>
-    <t>1401-04-30</t>
+    <t>1402-04-26 (10)</t>
+  </si>
+  <si>
+    <t>1402-04-29 (2)</t>
+  </si>
+  <si>
+    <t>1402-07-29 (3)</t>
   </si>
   <si>
     <t>1401-10-29</t>
   </si>
   <si>
-    <t>1402-02-30 (2)</t>
+    <t>1402-07-29 (6)</t>
+  </si>
+  <si>
+    <t>1402-04-29</t>
+  </si>
+  <si>
+    <t>1402-07-29</t>
   </si>
   <si>
     <t>فروش</t>
@@ -124,7 +187,7 @@
     <t>خالص سایر درامدها و هزینه های غیرعملیاتی</t>
   </si>
   <si>
-    <t>سود (زیان) خالص عملیات در حال تداوم قبل از مالیات</t>
+    <t>سود (زیان) عملیات در حال تداوم قبل از مالیات</t>
   </si>
   <si>
     <t>مالیات</t>
@@ -612,13 +675,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M28"/>
+  <dimension ref="B1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="54" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
@@ -626,9 +689,14 @@
     <col min="9" max="9" width="29" customWidth="1"/>
     <col min="10" max="12" width="28" customWidth="1"/>
     <col min="13" max="13" width="29" customWidth="1"/>
+    <col min="14" max="16" width="28" customWidth="1"/>
+    <col min="17" max="17" width="29" customWidth="1"/>
+    <col min="18" max="20" width="28" customWidth="1"/>
+    <col min="21" max="21" width="29" customWidth="1"/>
+    <col min="22" max="23" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -641,8 +709,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -657,8 +735,18 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -673,8 +761,18 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -687,8 +785,18 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -703,8 +811,18 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -719,8 +837,18 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -733,8 +861,18 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -769,44 +907,104 @@
       <c r="M8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -819,154 +1017,284 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>161518697</v>
+      </c>
+      <c r="E11" s="13">
+        <v>234757238</v>
+      </c>
+      <c r="F11" s="13">
+        <v>95946859</v>
+      </c>
+      <c r="G11" s="13">
+        <v>200337490</v>
+      </c>
+      <c r="H11" s="13">
+        <v>296129515</v>
+      </c>
+      <c r="I11" s="13">
+        <v>391458791</v>
+      </c>
+      <c r="J11" s="13">
+        <v>126685284</v>
+      </c>
+      <c r="K11" s="13">
+        <v>273617923</v>
+      </c>
+      <c r="L11" s="13">
         <v>494552551</v>
       </c>
-      <c r="E11" s="13">
+      <c r="M11" s="13">
         <v>774036745</v>
       </c>
-      <c r="F11" s="13">
+      <c r="N11" s="13">
         <v>336653925</v>
       </c>
-      <c r="G11" s="13">
+      <c r="O11" s="13">
         <v>660847349</v>
       </c>
-      <c r="H11" s="13">
+      <c r="P11" s="13">
         <v>1049691323</v>
       </c>
-      <c r="I11" s="13">
+      <c r="Q11" s="13">
         <v>1456266489</v>
       </c>
-      <c r="J11" s="13">
+      <c r="R11" s="13">
         <v>481494914</v>
       </c>
-      <c r="K11" s="13">
+      <c r="S11" s="13">
         <v>807673722</v>
       </c>
-      <c r="L11" s="13">
+      <c r="T11" s="13">
         <v>1156373480</v>
       </c>
-      <c r="M11" s="13">
+      <c r="U11" s="13">
         <v>1607038537</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V11" s="13">
+        <v>630834205</v>
+      </c>
+      <c r="W11" s="13">
+        <v>1235265296</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-86172334</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-124803148</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-42984687</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-96497692</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-156395568</v>
+      </c>
+      <c r="I12" s="11">
+        <v>-225458652</v>
+      </c>
+      <c r="J12" s="11">
+        <v>-68737017</v>
+      </c>
+      <c r="K12" s="11">
+        <v>-151011055</v>
+      </c>
+      <c r="L12" s="11">
         <v>-263134263</v>
       </c>
-      <c r="E12" s="11">
+      <c r="M12" s="11">
         <v>-406302318</v>
       </c>
-      <c r="F12" s="11">
+      <c r="N12" s="11">
         <v>-164051934</v>
       </c>
-      <c r="G12" s="11">
+      <c r="O12" s="11">
         <v>-260735659</v>
       </c>
-      <c r="H12" s="11">
+      <c r="P12" s="11">
         <v>-455570376</v>
       </c>
-      <c r="I12" s="11">
-        <v>-701949250</v>
-      </c>
-      <c r="J12" s="11">
+      <c r="Q12" s="11">
+        <v>-701949251</v>
+      </c>
+      <c r="R12" s="11">
         <v>-250964524</v>
       </c>
-      <c r="K12" s="11">
+      <c r="S12" s="11">
         <v>-453578928</v>
       </c>
-      <c r="L12" s="11">
+      <c r="T12" s="11">
         <v>-699482419</v>
       </c>
-      <c r="M12" s="11">
-        <v>-1036494655</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U12" s="11">
+        <v>-1039222069</v>
+      </c>
+      <c r="V12" s="11">
+        <v>-336215537</v>
+      </c>
+      <c r="W12" s="11">
+        <v>-681686166</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>75346363</v>
+      </c>
+      <c r="E13" s="15">
+        <v>109954090</v>
+      </c>
+      <c r="F13" s="15">
+        <v>52962172</v>
+      </c>
+      <c r="G13" s="15">
+        <v>103839798</v>
+      </c>
+      <c r="H13" s="15">
+        <v>139733947</v>
+      </c>
+      <c r="I13" s="15">
+        <v>166000139</v>
+      </c>
+      <c r="J13" s="15">
+        <v>57948267</v>
+      </c>
+      <c r="K13" s="15">
+        <v>122606868</v>
+      </c>
+      <c r="L13" s="15">
         <v>231418288</v>
       </c>
-      <c r="E13" s="15">
+      <c r="M13" s="15">
         <v>367734427</v>
       </c>
-      <c r="F13" s="15">
+      <c r="N13" s="15">
         <v>172601991</v>
       </c>
-      <c r="G13" s="15">
+      <c r="O13" s="15">
         <v>400111690</v>
       </c>
-      <c r="H13" s="15">
+      <c r="P13" s="15">
         <v>594120947</v>
       </c>
-      <c r="I13" s="15">
-        <v>754317239</v>
-      </c>
-      <c r="J13" s="15">
+      <c r="Q13" s="15">
+        <v>754317238</v>
+      </c>
+      <c r="R13" s="15">
         <v>230530390</v>
       </c>
-      <c r="K13" s="15">
+      <c r="S13" s="15">
         <v>354094794</v>
       </c>
-      <c r="L13" s="15">
+      <c r="T13" s="15">
         <v>456891061</v>
       </c>
-      <c r="M13" s="15">
-        <v>570543882</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U13" s="15">
+        <v>567816468</v>
+      </c>
+      <c r="V13" s="15">
+        <v>294618668</v>
+      </c>
+      <c r="W13" s="15">
+        <v>553579130</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-5067825</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-7692537</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-2295860</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-5047585</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-7891728</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-11938176</v>
+      </c>
+      <c r="J14" s="11">
+        <v>-3830892</v>
+      </c>
+      <c r="K14" s="11">
+        <v>-7260316</v>
+      </c>
+      <c r="L14" s="11">
         <v>-12322493</v>
       </c>
-      <c r="E14" s="11">
+      <c r="M14" s="11">
         <v>-18679133</v>
       </c>
-      <c r="F14" s="11">
+      <c r="N14" s="11">
         <v>-6317127</v>
       </c>
-      <c r="G14" s="11">
+      <c r="O14" s="11">
         <v>-14387132</v>
       </c>
-      <c r="H14" s="11">
+      <c r="P14" s="11">
         <v>-22128121</v>
       </c>
-      <c r="I14" s="11">
+      <c r="Q14" s="11">
         <v>-34327741</v>
       </c>
-      <c r="J14" s="11">
+      <c r="R14" s="11">
         <v>-11686162</v>
       </c>
-      <c r="K14" s="11">
+      <c r="S14" s="11">
         <v>-20900813</v>
       </c>
-      <c r="L14" s="11">
+      <c r="T14" s="11">
         <v>-35701123</v>
       </c>
-      <c r="M14" s="11">
-        <v>-53307287</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U14" s="11">
+        <v>-57705982</v>
+      </c>
+      <c r="V14" s="11">
+        <v>-19634198</v>
+      </c>
+      <c r="W14" s="11">
+        <v>-36931153</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -999,262 +1327,502 @@
       <c r="M15" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>0</v>
+      </c>
+      <c r="R15" s="13">
+        <v>0</v>
+      </c>
+      <c r="S15" s="13">
+        <v>0</v>
+      </c>
+      <c r="T15" s="13">
+        <v>0</v>
+      </c>
+      <c r="U15" s="13">
+        <v>0</v>
+      </c>
+      <c r="V15" s="13">
+        <v>0</v>
+      </c>
+      <c r="W15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
+        <v>6692164</v>
+      </c>
+      <c r="E16" s="11">
+        <v>17076969</v>
+      </c>
+      <c r="F16" s="11">
+        <v>-1935433</v>
+      </c>
+      <c r="G16" s="11">
+        <v>-1776388</v>
+      </c>
+      <c r="H16" s="11">
+        <v>-2438082</v>
+      </c>
+      <c r="I16" s="11">
+        <v>-1475350</v>
+      </c>
+      <c r="J16" s="11">
+        <v>-891305</v>
+      </c>
+      <c r="K16" s="11">
+        <v>3869806</v>
+      </c>
+      <c r="L16" s="11">
         <v>3976497</v>
       </c>
-      <c r="E16" s="11">
+      <c r="M16" s="11">
         <v>6356145</v>
       </c>
-      <c r="F16" s="11">
+      <c r="N16" s="11">
         <v>-473711</v>
       </c>
-      <c r="G16" s="11">
+      <c r="O16" s="11">
         <v>1890032</v>
       </c>
-      <c r="H16" s="11">
+      <c r="P16" s="11">
         <v>2319168</v>
       </c>
-      <c r="I16" s="11">
-        <v>12254290</v>
-      </c>
-      <c r="J16" s="11">
+      <c r="Q16" s="11">
+        <v>12254292</v>
+      </c>
+      <c r="R16" s="11">
         <v>-1606555</v>
       </c>
-      <c r="K16" s="11">
+      <c r="S16" s="11">
         <v>544812</v>
       </c>
-      <c r="L16" s="11">
+      <c r="T16" s="11">
         <v>-1505462</v>
       </c>
-      <c r="M16" s="11">
-        <v>23322833</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U16" s="11">
+        <v>28207579</v>
+      </c>
+      <c r="V16" s="11">
+        <v>-4261397</v>
+      </c>
+      <c r="W16" s="11">
+        <v>-3790846</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>76970702</v>
+      </c>
+      <c r="E17" s="15">
+        <v>119338522</v>
+      </c>
+      <c r="F17" s="15">
+        <v>48730879</v>
+      </c>
+      <c r="G17" s="15">
+        <v>97015825</v>
+      </c>
+      <c r="H17" s="15">
+        <v>129404137</v>
+      </c>
+      <c r="I17" s="15">
+        <v>152586613</v>
+      </c>
+      <c r="J17" s="15">
+        <v>53226070</v>
+      </c>
+      <c r="K17" s="15">
+        <v>119216358</v>
+      </c>
+      <c r="L17" s="15">
         <v>223072292</v>
       </c>
-      <c r="E17" s="15">
+      <c r="M17" s="15">
         <v>355411439</v>
       </c>
-      <c r="F17" s="15">
+      <c r="N17" s="15">
         <v>165811153</v>
       </c>
-      <c r="G17" s="15">
+      <c r="O17" s="15">
         <v>387614590</v>
       </c>
-      <c r="H17" s="15">
+      <c r="P17" s="15">
         <v>574311994</v>
       </c>
-      <c r="I17" s="15">
-        <v>732243788</v>
-      </c>
-      <c r="J17" s="15">
+      <c r="Q17" s="15">
+        <v>732243789</v>
+      </c>
+      <c r="R17" s="15">
         <v>217237673</v>
       </c>
-      <c r="K17" s="15">
+      <c r="S17" s="15">
         <v>333738793</v>
       </c>
-      <c r="L17" s="15">
+      <c r="T17" s="15">
         <v>419684476</v>
       </c>
-      <c r="M17" s="15">
-        <v>540559428</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U17" s="15">
+        <v>538318065</v>
+      </c>
+      <c r="V17" s="15">
+        <v>270723073</v>
+      </c>
+      <c r="W17" s="15">
+        <v>512857131</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
+        <v>-7765627</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-10253754</v>
+      </c>
+      <c r="F18" s="11">
+        <v>-3759534</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-6939296</v>
+      </c>
+      <c r="H18" s="11">
+        <v>-10462576</v>
+      </c>
+      <c r="I18" s="11">
+        <v>-14710422</v>
+      </c>
+      <c r="J18" s="11">
+        <v>-7048609</v>
+      </c>
+      <c r="K18" s="11">
+        <v>-11947558</v>
+      </c>
+      <c r="L18" s="11">
         <v>-17769738</v>
       </c>
-      <c r="E18" s="11">
+      <c r="M18" s="11">
         <v>-30243308</v>
       </c>
-      <c r="F18" s="11">
+      <c r="N18" s="11">
         <v>-7785869</v>
       </c>
-      <c r="G18" s="11">
+      <c r="O18" s="11">
         <v>-12942051</v>
       </c>
-      <c r="H18" s="11">
+      <c r="P18" s="11">
         <v>-18935402</v>
       </c>
-      <c r="I18" s="11">
+      <c r="Q18" s="11">
         <v>-24945630</v>
       </c>
-      <c r="J18" s="11">
+      <c r="R18" s="11">
         <v>-8399752</v>
       </c>
-      <c r="K18" s="11">
+      <c r="S18" s="11">
         <v>-14830551</v>
       </c>
-      <c r="L18" s="11">
+      <c r="T18" s="11">
         <v>-23100509</v>
       </c>
-      <c r="M18" s="11">
-        <v>-37181720</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U18" s="11">
+        <v>-37824386</v>
+      </c>
+      <c r="V18" s="11">
+        <v>-19765157</v>
+      </c>
+      <c r="W18" s="11">
+        <v>-33702064</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>3446024</v>
+      </c>
+      <c r="E19" s="13">
+        <v>23084419</v>
+      </c>
+      <c r="F19" s="13">
+        <v>75424</v>
+      </c>
+      <c r="G19" s="13">
+        <v>922125</v>
+      </c>
+      <c r="H19" s="13">
+        <v>2120255</v>
+      </c>
+      <c r="I19" s="13">
+        <v>31122266</v>
+      </c>
+      <c r="J19" s="13">
+        <v>381037</v>
+      </c>
+      <c r="K19" s="13">
+        <v>16121038</v>
+      </c>
+      <c r="L19" s="13">
         <v>24422385</v>
       </c>
-      <c r="E19" s="13">
+      <c r="M19" s="13">
         <v>90009897</v>
       </c>
-      <c r="F19" s="13">
+      <c r="N19" s="13">
         <v>10915093</v>
       </c>
-      <c r="G19" s="13">
+      <c r="O19" s="13">
         <v>21539041</v>
       </c>
-      <c r="H19" s="13">
+      <c r="P19" s="13">
         <v>38032336</v>
       </c>
-      <c r="I19" s="13">
+      <c r="Q19" s="13">
         <v>184678606</v>
       </c>
-      <c r="J19" s="13">
+      <c r="R19" s="13">
         <v>21641874</v>
       </c>
-      <c r="K19" s="13">
-        <v>2994581</v>
-      </c>
-      <c r="L19" s="13">
+      <c r="S19" s="13">
+        <v>3411103</v>
+      </c>
+      <c r="T19" s="13">
         <v>14477680</v>
       </c>
-      <c r="M19" s="13">
-        <v>100883934</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U19" s="13">
+        <v>228667077</v>
+      </c>
+      <c r="V19" s="13">
+        <v>68821248</v>
+      </c>
+      <c r="W19" s="13">
+        <v>98861077</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>72651099</v>
+      </c>
+      <c r="E20" s="17">
+        <v>132169187</v>
+      </c>
+      <c r="F20" s="17">
+        <v>45046769</v>
+      </c>
+      <c r="G20" s="17">
+        <v>90998654</v>
+      </c>
+      <c r="H20" s="17">
+        <v>121061816</v>
+      </c>
+      <c r="I20" s="17">
+        <v>168998457</v>
+      </c>
+      <c r="J20" s="17">
+        <v>46558498</v>
+      </c>
+      <c r="K20" s="17">
+        <v>123389838</v>
+      </c>
+      <c r="L20" s="17">
         <v>229724939</v>
       </c>
-      <c r="E20" s="17">
+      <c r="M20" s="17">
         <v>415178028</v>
       </c>
-      <c r="F20" s="17">
+      <c r="N20" s="17">
         <v>168940377</v>
       </c>
-      <c r="G20" s="17">
+      <c r="O20" s="17">
         <v>396211580</v>
       </c>
-      <c r="H20" s="17">
+      <c r="P20" s="17">
         <v>593408928</v>
       </c>
-      <c r="I20" s="17">
-        <v>891976764</v>
-      </c>
-      <c r="J20" s="17">
+      <c r="Q20" s="17">
+        <v>891976765</v>
+      </c>
+      <c r="R20" s="17">
         <v>230479795</v>
       </c>
-      <c r="K20" s="17">
-        <v>321902823</v>
-      </c>
-      <c r="L20" s="17">
+      <c r="S20" s="17">
+        <v>322319345</v>
+      </c>
+      <c r="T20" s="17">
         <v>411061647</v>
       </c>
-      <c r="M20" s="17">
-        <v>604261642</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U20" s="17">
+        <v>729160756</v>
+      </c>
+      <c r="V20" s="17">
+        <v>319779164</v>
+      </c>
+      <c r="W20" s="17">
+        <v>578016144</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
+        <v>-2722526</v>
+      </c>
+      <c r="E21" s="13">
+        <v>-9864015</v>
+      </c>
+      <c r="F21" s="13">
+        <v>-7393015</v>
+      </c>
+      <c r="G21" s="13">
+        <v>-10314923</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-12675504</v>
+      </c>
+      <c r="I21" s="13">
+        <v>-21038649</v>
+      </c>
+      <c r="J21" s="13">
+        <v>-7449360</v>
+      </c>
+      <c r="K21" s="13">
+        <v>-16436675</v>
+      </c>
+      <c r="L21" s="13">
         <v>-22647905</v>
       </c>
-      <c r="E21" s="13">
+      <c r="M21" s="13">
         <v>-32403017</v>
       </c>
-      <c r="F21" s="13">
+      <c r="N21" s="13">
         <v>-30341156</v>
       </c>
-      <c r="G21" s="13">
+      <c r="O21" s="13">
         <v>-52321782</v>
       </c>
-      <c r="H21" s="13">
+      <c r="P21" s="13">
         <v>-62544828</v>
       </c>
-      <c r="I21" s="13">
-        <v>-51182605</v>
-      </c>
-      <c r="J21" s="13">
+      <c r="Q21" s="13">
+        <v>-62985596</v>
+      </c>
+      <c r="R21" s="13">
         <v>-23560175</v>
       </c>
-      <c r="K21" s="13">
-        <v>-51943446</v>
-      </c>
-      <c r="L21" s="13">
+      <c r="S21" s="13">
+        <v>-51943445</v>
+      </c>
+      <c r="T21" s="13">
         <v>-57496535</v>
       </c>
-      <c r="M21" s="13">
-        <v>-56957617</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U21" s="13">
+        <v>-49919939</v>
+      </c>
+      <c r="V21" s="13">
+        <v>-52366874</v>
+      </c>
+      <c r="W21" s="13">
+        <v>-53543046</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>69928573</v>
+      </c>
+      <c r="E22" s="17">
+        <v>122305172</v>
+      </c>
+      <c r="F22" s="17">
+        <v>37653754</v>
+      </c>
+      <c r="G22" s="17">
+        <v>80683731</v>
+      </c>
+      <c r="H22" s="17">
+        <v>108386312</v>
+      </c>
+      <c r="I22" s="17">
+        <v>147959808</v>
+      </c>
+      <c r="J22" s="17">
+        <v>39109138</v>
+      </c>
+      <c r="K22" s="17">
+        <v>106953163</v>
+      </c>
+      <c r="L22" s="17">
         <v>207077034</v>
       </c>
-      <c r="E22" s="17">
+      <c r="M22" s="17">
         <v>382775011</v>
       </c>
-      <c r="F22" s="17">
+      <c r="N22" s="17">
         <v>138599221</v>
       </c>
-      <c r="G22" s="17">
+      <c r="O22" s="17">
         <v>343889798</v>
       </c>
-      <c r="H22" s="17">
+      <c r="P22" s="17">
         <v>530864100</v>
       </c>
-      <c r="I22" s="17">
-        <v>840794159</v>
-      </c>
-      <c r="J22" s="17">
+      <c r="Q22" s="17">
+        <v>828991169</v>
+      </c>
+      <c r="R22" s="17">
         <v>206919620</v>
       </c>
-      <c r="K22" s="17">
-        <v>269959377</v>
-      </c>
-      <c r="L22" s="17">
+      <c r="S22" s="17">
+        <v>270375900</v>
+      </c>
+      <c r="T22" s="17">
         <v>353565112</v>
       </c>
-      <c r="M22" s="17">
-        <v>547304025</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U22" s="17">
+        <v>679240817</v>
+      </c>
+      <c r="V22" s="17">
+        <v>267412290</v>
+      </c>
+      <c r="W22" s="17">
+        <v>524473098</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -1287,98 +1855,188 @@
       <c r="M23" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N23" s="13">
+        <v>0</v>
+      </c>
+      <c r="O23" s="13">
+        <v>0</v>
+      </c>
+      <c r="P23" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>0</v>
+      </c>
+      <c r="R23" s="13">
+        <v>0</v>
+      </c>
+      <c r="S23" s="13">
+        <v>0</v>
+      </c>
+      <c r="T23" s="13">
+        <v>0</v>
+      </c>
+      <c r="U23" s="13">
+        <v>0</v>
+      </c>
+      <c r="V23" s="13">
+        <v>0</v>
+      </c>
+      <c r="W23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>69928573</v>
+      </c>
+      <c r="E24" s="17">
+        <v>122305172</v>
+      </c>
+      <c r="F24" s="17">
+        <v>37653754</v>
+      </c>
+      <c r="G24" s="17">
+        <v>80683731</v>
+      </c>
+      <c r="H24" s="17">
+        <v>108386312</v>
+      </c>
+      <c r="I24" s="17">
+        <v>147959808</v>
+      </c>
+      <c r="J24" s="17">
+        <v>39109138</v>
+      </c>
+      <c r="K24" s="17">
+        <v>106953163</v>
+      </c>
+      <c r="L24" s="17">
         <v>207077034</v>
       </c>
-      <c r="E24" s="17">
+      <c r="M24" s="17">
         <v>382775011</v>
       </c>
-      <c r="F24" s="17">
+      <c r="N24" s="17">
         <v>138599221</v>
       </c>
-      <c r="G24" s="17">
+      <c r="O24" s="17">
         <v>343889798</v>
       </c>
-      <c r="H24" s="17">
+      <c r="P24" s="17">
         <v>530864100</v>
       </c>
-      <c r="I24" s="17">
-        <v>840794159</v>
-      </c>
-      <c r="J24" s="17">
+      <c r="Q24" s="17">
+        <v>828991169</v>
+      </c>
+      <c r="R24" s="17">
         <v>206919620</v>
       </c>
-      <c r="K24" s="17">
-        <v>269959377</v>
-      </c>
-      <c r="L24" s="17">
+      <c r="S24" s="17">
+        <v>270375900</v>
+      </c>
+      <c r="T24" s="17">
         <v>353565112</v>
       </c>
-      <c r="M24" s="17">
-        <v>547304025</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U24" s="17">
+        <v>679240817</v>
+      </c>
+      <c r="V24" s="17">
+        <v>267412290</v>
+      </c>
+      <c r="W24" s="17">
+        <v>524473098</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
+        <v>538</v>
+      </c>
+      <c r="E25" s="13">
+        <v>585</v>
+      </c>
+      <c r="F25" s="13">
+        <v>180</v>
+      </c>
+      <c r="G25" s="13">
+        <v>0</v>
+      </c>
+      <c r="H25" s="13">
+        <v>519</v>
+      </c>
+      <c r="I25" s="13">
+        <v>505</v>
+      </c>
+      <c r="J25" s="13">
+        <v>133</v>
+      </c>
+      <c r="K25" s="13">
+        <v>365</v>
+      </c>
+      <c r="L25" s="13">
         <v>707</v>
       </c>
-      <c r="E25" s="13">
+      <c r="M25" s="13">
         <v>1306</v>
       </c>
-      <c r="F25" s="13">
+      <c r="N25" s="13">
         <v>473</v>
       </c>
-      <c r="G25" s="13">
+      <c r="O25" s="13">
         <v>649</v>
       </c>
-      <c r="H25" s="13">
+      <c r="P25" s="13">
         <v>1002</v>
       </c>
-      <c r="I25" s="13">
-        <v>2870</v>
-      </c>
-      <c r="J25" s="13">
-        <v>706</v>
-      </c>
-      <c r="K25" s="13">
-        <v>509</v>
-      </c>
-      <c r="L25" s="13">
+      <c r="Q25" s="13">
+        <v>1036</v>
+      </c>
+      <c r="R25" s="13">
+        <v>259</v>
+      </c>
+      <c r="S25" s="13">
+        <v>338</v>
+      </c>
+      <c r="T25" s="13">
         <v>667</v>
       </c>
-      <c r="M25" s="13">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U25" s="13">
+        <v>849</v>
+      </c>
+      <c r="V25" s="13">
+        <v>334</v>
+      </c>
+      <c r="W25" s="13">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>293000000</v>
+        <v>130000000</v>
       </c>
       <c r="E26" s="11">
-        <v>293000000</v>
+        <v>209000000</v>
       </c>
       <c r="F26" s="11">
-        <v>293000000</v>
+        <v>209000000</v>
       </c>
       <c r="G26" s="11">
-        <v>530000000</v>
+        <v>209000000</v>
       </c>
       <c r="H26" s="11">
-        <v>530000000</v>
+        <v>209000000</v>
       </c>
       <c r="I26" s="11">
         <v>293000000</v>
@@ -1387,52 +2045,112 @@
         <v>293000000</v>
       </c>
       <c r="K26" s="11">
+        <v>293000000</v>
+      </c>
+      <c r="L26" s="11">
+        <v>293000000</v>
+      </c>
+      <c r="M26" s="11">
+        <v>293000000</v>
+      </c>
+      <c r="N26" s="11">
+        <v>293000000</v>
+      </c>
+      <c r="O26" s="11">
         <v>530000000</v>
       </c>
-      <c r="L26" s="11">
+      <c r="P26" s="11">
         <v>530000000</v>
       </c>
-      <c r="M26" s="11">
+      <c r="Q26" s="11">
         <v>800000000</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="R26" s="11">
+        <v>800000000</v>
+      </c>
+      <c r="S26" s="11">
+        <v>800000000</v>
+      </c>
+      <c r="T26" s="11">
+        <v>530000000</v>
+      </c>
+      <c r="U26" s="11">
+        <v>800000000</v>
+      </c>
+      <c r="V26" s="11">
+        <v>800000000</v>
+      </c>
+      <c r="W26" s="11">
+        <v>800000000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
+        <v>87</v>
+      </c>
+      <c r="E27" s="13">
+        <v>153</v>
+      </c>
+      <c r="F27" s="13">
+        <v>47</v>
+      </c>
+      <c r="G27" s="13">
+        <v>101</v>
+      </c>
+      <c r="H27" s="13">
+        <v>135</v>
+      </c>
+      <c r="I27" s="13">
+        <v>185</v>
+      </c>
+      <c r="J27" s="13">
+        <v>49</v>
+      </c>
+      <c r="K27" s="13">
+        <v>134</v>
+      </c>
+      <c r="L27" s="13">
         <v>259</v>
       </c>
-      <c r="E27" s="13">
+      <c r="M27" s="13">
         <v>478</v>
       </c>
-      <c r="F27" s="13">
+      <c r="N27" s="13">
         <v>173</v>
       </c>
-      <c r="G27" s="13">
+      <c r="O27" s="13">
         <v>430</v>
       </c>
-      <c r="H27" s="13">
+      <c r="P27" s="13">
         <v>664</v>
       </c>
-      <c r="I27" s="13">
-        <v>1051</v>
-      </c>
-      <c r="J27" s="13">
+      <c r="Q27" s="13">
+        <v>1036</v>
+      </c>
+      <c r="R27" s="13">
         <v>259</v>
       </c>
-      <c r="K27" s="13">
-        <v>337</v>
-      </c>
-      <c r="L27" s="13">
+      <c r="S27" s="13">
+        <v>338</v>
+      </c>
+      <c r="T27" s="13">
         <v>442</v>
       </c>
-      <c r="M27" s="13">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U27" s="13">
+        <v>849</v>
+      </c>
+      <c r="V27" s="13">
+        <v>334</v>
+      </c>
+      <c r="W27" s="13">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1445,6 +2163,16 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
